--- a/results_thesis_batch.xlsx
+++ b/results_thesis_batch.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$12:$G$19</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$12:$J$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$12:$H$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t xml:space="preserve">Flight #</t>
   </si>
@@ -31,6 +32,9 @@
     <t xml:space="preserve">Flight Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average Wind Speed (m/s)</t>
   </si>
   <si>
@@ -76,6 +80,9 @@
     <t xml:space="preserve">Hover Flight, with Low Wind</t>
   </si>
   <si>
+    <t xml:space="preserve">high use of pusher prop, flight in lines, with average speed of 2.45 m/s</t>
+  </si>
+  <si>
     <t xml:space="preserve">OUTDOOR_23_04_17__15_58_49_SD_1_short.mat</t>
   </si>
   <si>
@@ -106,24 +113,42 @@
     <t xml:space="preserve">Error Overall Mean [m/s]</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">OUTDOOR_23_05_18__11_06_40_SD_1_short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTDOOR_23_05_18__13_30_10_SD_1_short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTDOOR_23_05_17__14_14_53_SD_1_short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTDOOR_23_05_11__14_27_57_SD_1_short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTDOOR_23_04_19__16_08_49_SD_1_short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTDOOR_23_04_17__15_58_49_SD_1_short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTDOOR_23_04_25__17_06_42_SD_1_short</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,6 +170,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -219,7 +251,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,16 +279,16 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -281,28 +313,32 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="n">
         <v>5.70554951030893</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="E2" s="4" t="n">
         <v>241.2</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="F2" s="4" t="n">
         <v>140.48</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="G2" s="4" t="n">
         <v>92.44</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,22 +346,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="n">
         <v>5.46142816989265</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="E3" s="4" t="n">
         <v>442.12</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="F3" s="4" t="n">
         <v>310.56</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="G3" s="4" t="n">
         <v>100.2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,22 +370,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="n">
         <v>5.25021358753082</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>309.96</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="F4" s="4" t="n">
         <v>154.92</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="G4" s="4" t="n">
         <v>138.96</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,22 +394,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>4.46551725098788</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="E5" s="4" t="n">
         <v>353.76</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="F5" s="4" t="n">
         <v>307.12</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="G5" s="4" t="n">
         <v>12.12</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,22 +417,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>9.29914306855607</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="E6" s="4" t="n">
         <v>326.92</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="F6" s="4" t="n">
         <v>326.96</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="G6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -402,22 +440,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>5.14531342534896</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="E7" s="4" t="n">
         <v>338.32</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="F7" s="4" t="n">
         <v>338.36</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,288 +466,273 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>6.97323867920006</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="E8" s="4" t="n">
         <v>338.48</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="F8" s="4" t="n">
         <v>338.52</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="G8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.17802387364697</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.73604723133315</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1.97047171504794</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.738531739266369</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>4.02163351020273</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1.0155401226899</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>-0.59717227336541</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2.00877015189244</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.49060501337746</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1.79168154739809</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.884845335315278</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>5.51323426679263</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1.32892663075544</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>-1.50642209257384</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2.04787193072339</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.52560429556701</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.982607055944821</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1.48659174172479</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1.8770506980125</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1.61527033053132</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1.25897821278166</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2.10978597139309</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3.01358368394383</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1.02832312526481</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1.57952431170094</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5.05204936755748</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1.82278319080701</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>-1.06265803894135</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1.84983481358799</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.84983481358799</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3.11357308992678</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1.674298754316</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>-0.786737230101201</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>1.4927905693685</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>1.83944506882041</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>1.30037893217242</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>1.17720693416715</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>3.1438655617733</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>1.33558768121055</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>-0.667059676716155</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>1.57012629381325</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>1.80686928481895</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>1.14629889746032</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>1.15613758813274</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>3.11151705334776</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>1.52571652852727</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>-0.371138765186604</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>2.45507702819872</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>2.68772077233132</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>1.13063754860174</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>2.28877566709448</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>4.11579141063952</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>1.83131616505754</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>1.63527603082983</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>1.27027642649746</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>2.2177983235147</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>1.47766411167885</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>2.14073421309296</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>4.21535839893139</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>1.26838420196743</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0.0713190550831941</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>2.05071478857282</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>2.05071478857282</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>1.52681196109832</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>1.6902348216236</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>-1.16141590385247</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>0.960426719981596</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>1.18591382116254</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>4.17296607015409</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0.945074332865376</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0.171419837679092</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="B18" s="0" t="n">
+        <v>0.92064786020914</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.09264444973316</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>3.27076393697412</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.877362875954376</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.279176592874206</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>2.28169134069324</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>2.55282921292096</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>4.81393196514748</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>2.20711919119004</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>-0.57910861977653</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>9</v>
+      <c r="B19" s="0" t="n">
+        <v>2.22343683730716</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2.51854900122447</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>4.45026155251565</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1.9654790809688</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>-1.03974045537145</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
         <f aca="false">AVERAGE(B13:B19)</f>
-        <v>1.72587188101794</v>
+        <v>1.76262449125145</v>
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">AVERAGE(C13:C19)</f>
-        <v>2.04875589602024</v>
+        <v>2.17526692696672</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">AVERAGE(D13:D19)</f>
-        <v>1.26374487247833</v>
+        <v>1.44327086091392</v>
       </c>
       <c r="E20" s="0" t="n">
         <f aca="false">AVERAGE(E13:E19)</f>
-        <v>1.69071360062184</v>
+        <v>1.17237328200184</v>
       </c>
       <c r="F20" s="0" t="n">
         <f aca="false">AVERAGE(F13:F19)</f>
-        <v>3.58574891729884</v>
+        <v>3.89979520314027</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">AVERAGE(G13:G19)</f>
-        <v>1.54334756034883</v>
+        <v>1.47138014086041</v>
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">AVERAGE(H13:H19)</f>
-        <v>-0.128672577419949</v>
+        <v>-0.493510754956769</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A12:G19"/>
+  <autoFilter ref="A12:J20"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
